--- a/Code/Jupiter/Connect4/Logs/DQN/DQN-SelfPlay_L2-11400-TU-200-BS-128-evaluation_results.xlsx
+++ b/Code/Jupiter/Connect4/Logs/DQN/DQN-SelfPlay_L2-11400-TU-200-BS-128-evaluation_results.xlsx
@@ -477,19 +477,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.192</v>
+        <v>0.187</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -502,19 +502,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.505</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.495</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
